--- a/MiilonData/02_Papier_SergeGainsbourg_p1_Sois_belle_et_tais-toi.xlsx
+++ b/MiilonData/02_Papier_SergeGainsbourg_p1_Sois_belle_et_tais-toi.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12570"/>
   </bookViews>
   <sheets>
-    <sheet name="Sois belle et tais-toi" sheetId="2" r:id="rId1"/>
+    <sheet name="Paroles" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
